--- a/src/main/webapp/WEB-INF/file/officeExcelDemo.xlsx
+++ b/src/main/webapp/WEB-INF/file/officeExcelDemo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14430" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="表格1" sheetId="1" r:id="rId1"/>
     <sheet name="表格2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +67,26 @@
   </si>
   <si>
     <t>2017/3/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/03/27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,12 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,72 +442,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
         <v>10.01</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
-        <v>42818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
         <v>10.02</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" s="1">
-        <v>42818</v>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -501,23 +523,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="29" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="29" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -525,16 +547,16 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -542,16 +564,16 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
         <v>10.01</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -559,16 +581,16 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
         <v>10.02</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/file/officeExcelDemo.xlsx
+++ b/src/main/webapp/WEB-INF/file/officeExcelDemo.xlsx
@@ -11,7 +11,6 @@
     <sheet name="表格2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
 </workbook>
 </file>
 
@@ -94,9 +93,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,17 +444,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -461,54 +464,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>10.01</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>10.02</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>100</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
